--- a/data/18吨栏式车.xlsx
+++ b/data/18吨栏式车.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/车辆数据(1)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F445E5F7-415E-0C4D-A487-B3AD05E0B3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A8E07C-AAB9-FE43-9BE3-D1B4368A7C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="20920" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="燃油汽车" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="91">
   <si>
     <t>单位</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>广州-深圳</t>
+  </si>
+  <si>
+    <t>电池容量</t>
   </si>
 </sst>
 </file>
@@ -1645,10 +1648,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -2242,40 +2245,40 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="6" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="7">
-        <v>6.2111801242236</v>
-      </c>
-      <c r="D14" s="7">
-        <v>6.1490683229813703</v>
-      </c>
-      <c r="E14" s="7">
-        <v>6.0881987577639798</v>
-      </c>
-      <c r="F14" s="7">
-        <v>6.02853416149068</v>
-      </c>
-      <c r="G14" s="7">
-        <v>5.9700387577639704</v>
-      </c>
-      <c r="H14" s="7">
-        <v>5.9126781863354001</v>
-      </c>
-      <c r="I14" s="7">
-        <v>5.85641943304348</v>
-      </c>
-      <c r="J14" s="7">
-        <v>5.80123076391056</v>
-      </c>
-      <c r="K14" s="7">
-        <v>5.7470816631107597</v>
-      </c>
-      <c r="L14" s="7">
-        <v>5.69394277454363</v>
+        <v>27</v>
+      </c>
+      <c r="C14" s="10">
+        <v>220</v>
+      </c>
+      <c r="D14" s="10">
+        <v>220</v>
+      </c>
+      <c r="E14" s="10">
+        <v>220</v>
+      </c>
+      <c r="F14" s="10">
+        <v>220</v>
+      </c>
+      <c r="G14" s="10">
+        <v>220</v>
+      </c>
+      <c r="H14" s="10">
+        <v>220</v>
+      </c>
+      <c r="I14" s="10">
+        <v>220</v>
+      </c>
+      <c r="J14" s="10">
+        <v>220</v>
+      </c>
+      <c r="K14" s="10">
+        <v>220</v>
+      </c>
+      <c r="L14" s="10">
+        <v>220</v>
       </c>
       <c r="M14" s="15"/>
       <c r="N14" s="15"/>
@@ -2283,83 +2286,83 @@
       <c r="P14" s="15"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="1" t="s">
-        <v>8</v>
+      <c r="A15" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C15" s="7">
-        <v>1366.45962732919</v>
+        <v>6.2111801242236</v>
       </c>
       <c r="D15" s="7">
-        <v>1352.7950310558999</v>
+        <v>6.1490683229813703</v>
       </c>
       <c r="E15" s="7">
-        <v>1339.4037267080801</v>
+        <v>6.0881987577639798</v>
       </c>
       <c r="F15" s="7">
-        <v>1326.2775155279501</v>
+        <v>6.02853416149068</v>
       </c>
       <c r="G15" s="7">
-        <v>1313.40852670807</v>
+        <v>5.9700387577639704</v>
       </c>
       <c r="H15" s="7">
-        <v>1300.78920099379</v>
+        <v>5.9126781863354001</v>
       </c>
       <c r="I15" s="7">
-        <v>1288.41227526957</v>
+        <v>5.85641943304348</v>
       </c>
       <c r="J15" s="7">
-        <v>1276.2707680603201</v>
+        <v>5.80123076391056</v>
       </c>
       <c r="K15" s="7">
-        <v>1264.3579658843701</v>
+        <v>5.7470816631107597</v>
       </c>
       <c r="L15" s="7">
-        <v>1252.6674103995999</v>
-      </c>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
+        <v>5.69394277454363</v>
+      </c>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="9">
-        <v>2</v>
-      </c>
-      <c r="D16" s="9">
-        <v>2</v>
-      </c>
-      <c r="E16" s="9">
-        <v>2</v>
-      </c>
-      <c r="F16" s="9">
-        <v>2</v>
-      </c>
-      <c r="G16" s="9">
-        <v>2</v>
-      </c>
-      <c r="H16" s="9">
-        <v>2</v>
-      </c>
-      <c r="I16" s="9">
-        <v>2</v>
-      </c>
-      <c r="J16" s="9">
-        <v>2</v>
-      </c>
-      <c r="K16" s="9">
-        <v>2</v>
-      </c>
-      <c r="L16" s="9">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1366.45962732919</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1352.7950310558999</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1339.4037267080801</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1326.2775155279501</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1313.40852670807</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1300.78920099379</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1288.41227526957</v>
+      </c>
+      <c r="J16" s="7">
+        <v>1276.2707680603201</v>
+      </c>
+      <c r="K16" s="7">
+        <v>1264.3579658843701</v>
+      </c>
+      <c r="L16" s="7">
+        <v>1252.6674103995999</v>
       </c>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
@@ -2367,41 +2370,41 @@
       <c r="P16" s="8"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="15">
-        <v>250</v>
-      </c>
-      <c r="D17" s="15">
-        <v>250</v>
-      </c>
-      <c r="E17" s="15">
-        <v>250</v>
-      </c>
-      <c r="F17" s="15">
-        <v>250</v>
-      </c>
-      <c r="G17" s="15">
-        <v>250</v>
-      </c>
-      <c r="H17" s="15">
-        <v>250</v>
-      </c>
-      <c r="I17" s="15">
-        <v>250</v>
-      </c>
-      <c r="J17" s="15">
-        <v>250</v>
-      </c>
-      <c r="K17" s="15">
-        <v>250</v>
-      </c>
-      <c r="L17" s="15">
-        <v>250</v>
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="9">
+        <v>2</v>
+      </c>
+      <c r="D17" s="9">
+        <v>2</v>
+      </c>
+      <c r="E17" s="9">
+        <v>2</v>
+      </c>
+      <c r="F17" s="9">
+        <v>2</v>
+      </c>
+      <c r="G17" s="9">
+        <v>2</v>
+      </c>
+      <c r="H17" s="9">
+        <v>2</v>
+      </c>
+      <c r="I17" s="9">
+        <v>2</v>
+      </c>
+      <c r="J17" s="9">
+        <v>2</v>
+      </c>
+      <c r="K17" s="9">
+        <v>2</v>
+      </c>
+      <c r="L17" s="9">
+        <v>2</v>
       </c>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
@@ -2410,191 +2413,233 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="16">
-        <v>0.56499999999999995</v>
+        <v>18</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="15">
+        <v>250</v>
       </c>
       <c r="D18" s="15">
-        <v>0.57030000000000003</v>
+        <v>250</v>
       </c>
       <c r="E18" s="15">
-        <v>0.57030000000000003</v>
+        <v>250</v>
       </c>
       <c r="F18" s="15">
-        <v>0.57030000000000003</v>
+        <v>250</v>
       </c>
       <c r="G18" s="15">
-        <v>0.57030000000000003</v>
+        <v>250</v>
       </c>
       <c r="H18" s="15">
-        <v>0.57030000000000003</v>
+        <v>250</v>
       </c>
       <c r="I18" s="15">
-        <v>0.57030000000000003</v>
+        <v>250</v>
       </c>
       <c r="J18" s="15">
-        <v>0.57030000000000003</v>
+        <v>250</v>
       </c>
       <c r="K18" s="15">
-        <v>0.57030000000000003</v>
+        <v>250</v>
       </c>
       <c r="L18" s="15">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="M18" s="15">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="N18" s="15">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="O18" s="15">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="P18" s="15">
-        <v>0.57030000000000003</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="16">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="I19" s="15">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="J19" s="15">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="L19" s="15">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="M19" s="15">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="N19" s="15">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="O19" s="15">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="P19" s="15">
+        <v>0.57030000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C20" s="7">
         <v>0.2</v>
       </c>
-      <c r="D19" s="8">
-        <f t="shared" ref="D19:L19" si="3">C19</f>
+      <c r="D20" s="8">
+        <f t="shared" ref="D20:L20" si="3">C20</f>
         <v>0.2</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E20" s="8">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F20" s="8">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G20" s="8">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H20" s="8">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I20" s="8">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J20" s="8">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K20" s="8">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L20" s="8">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="14" t="s">
+    <row r="21" spans="1:16">
+      <c r="A21" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C21" s="7">
         <v>5000</v>
       </c>
-      <c r="D20" s="8">
-        <f t="shared" ref="D20:L20" si="4">C20</f>
+      <c r="D21" s="8">
+        <f t="shared" ref="D21:L21" si="4">C21</f>
         <v>5000</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E21" s="8">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F21" s="8">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G21" s="8">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H21" s="8">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I21" s="8">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J21" s="8">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K21" s="8">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L21" s="8">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="14" t="s">
+    <row r="22" spans="1:16">
+      <c r="A22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C22" s="7">
         <v>2000</v>
       </c>
-      <c r="D21" s="8">
-        <f t="shared" ref="D21:L21" si="5">C21</f>
+      <c r="D22" s="8">
+        <f t="shared" ref="D22:L22" si="5">C22</f>
         <v>2000</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E22" s="8">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F22" s="8">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G22" s="8">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H22" s="8">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I22" s="8">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J22" s="8">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K22" s="8">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L22" s="8">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
@@ -2607,10 +2652,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -3372,343 +3417,385 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="7">
+        <v>50</v>
+      </c>
+      <c r="D18" s="7">
+        <v>48</v>
+      </c>
+      <c r="E18" s="7">
+        <v>46</v>
+      </c>
+      <c r="F18" s="7">
+        <v>44</v>
+      </c>
+      <c r="G18" s="7">
+        <v>42</v>
+      </c>
+      <c r="H18" s="7">
+        <v>40</v>
+      </c>
+      <c r="I18" s="7">
+        <v>38</v>
+      </c>
+      <c r="J18" s="7">
+        <v>36</v>
+      </c>
+      <c r="K18" s="7">
+        <v>34</v>
+      </c>
+      <c r="L18" s="7">
+        <v>32</v>
+      </c>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C19" s="7">
         <v>6.2111801242236</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D19" s="7">
         <v>6.1490683229813703</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E19" s="7">
         <v>6.0881987577639798</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F19" s="7">
         <v>6.02853416149068</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G19" s="7">
         <v>5.9700387577639704</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H19" s="7">
         <v>5.9126781863354001</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I19" s="7">
         <v>5.85641943304348</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J19" s="7">
         <v>5.80123076391056</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K19" s="7">
         <v>5.7470816631107597</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L19" s="7">
         <v>5.69394277454363</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="7">
-        <v>310.55900621118002</v>
-      </c>
-      <c r="D19" s="7">
-        <v>295.15527950310599</v>
-      </c>
-      <c r="E19" s="7">
-        <v>280.05714285714299</v>
-      </c>
-      <c r="F19" s="7">
-        <v>265.25550310558998</v>
-      </c>
-      <c r="G19" s="7">
-        <v>250.74162782608701</v>
-      </c>
-      <c r="H19" s="7">
-        <v>236.50712745341599</v>
-      </c>
-      <c r="I19" s="7">
-        <v>222.54393845565201</v>
-      </c>
-      <c r="J19" s="7">
-        <v>208.84430750077999</v>
-      </c>
-      <c r="K19" s="7">
-        <v>195.40077654576601</v>
-      </c>
-      <c r="L19" s="7">
-        <v>182.20616878539599</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="7">
+        <v>310.55900621118002</v>
+      </c>
+      <c r="D20" s="7">
+        <v>295.15527950310599</v>
+      </c>
+      <c r="E20" s="7">
+        <v>280.05714285714299</v>
+      </c>
+      <c r="F20" s="7">
+        <v>265.25550310558998</v>
+      </c>
+      <c r="G20" s="7">
+        <v>250.74162782608701</v>
+      </c>
+      <c r="H20" s="7">
+        <v>236.50712745341599</v>
+      </c>
+      <c r="I20" s="7">
+        <v>222.54393845565201</v>
+      </c>
+      <c r="J20" s="7">
+        <v>208.84430750077999</v>
+      </c>
+      <c r="K20" s="7">
+        <v>195.40077654576601</v>
+      </c>
+      <c r="L20" s="7">
+        <v>182.20616878539599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B21" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C21" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D21" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E21" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F21" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G21" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H21" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I21" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J21" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K21" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L21" s="9">
         <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="15">
-        <v>500</v>
-      </c>
-      <c r="D21" s="15">
-        <v>500</v>
-      </c>
-      <c r="E21" s="15">
-        <v>500</v>
-      </c>
-      <c r="F21" s="15">
-        <v>500</v>
-      </c>
-      <c r="G21" s="15">
-        <v>500</v>
-      </c>
-      <c r="H21" s="15">
-        <v>500</v>
-      </c>
-      <c r="I21" s="15">
-        <v>500</v>
-      </c>
-      <c r="J21" s="15">
-        <v>500</v>
-      </c>
-      <c r="K21" s="15">
-        <v>500</v>
-      </c>
-      <c r="L21" s="15">
-        <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="15">
+        <v>500</v>
+      </c>
+      <c r="D22" s="15">
+        <v>500</v>
+      </c>
+      <c r="E22" s="15">
+        <v>500</v>
+      </c>
+      <c r="F22" s="15">
+        <v>500</v>
+      </c>
+      <c r="G22" s="15">
+        <v>500</v>
+      </c>
+      <c r="H22" s="15">
+        <v>500</v>
+      </c>
+      <c r="I22" s="15">
+        <v>500</v>
+      </c>
+      <c r="J22" s="15">
+        <v>500</v>
+      </c>
+      <c r="K22" s="15">
+        <v>500</v>
+      </c>
+      <c r="L22" s="15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B23" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C23" s="16">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D23" s="16">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E23" s="16">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F23" s="16">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G23" s="16">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H23" s="16">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I23" s="16">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J23" s="16">
         <v>4.9000000000000004</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K23" s="16">
         <v>4.9000000000000004</v>
       </c>
-      <c r="L22" s="16">
+      <c r="L23" s="16">
         <v>4.9000000000000004</v>
       </c>
-      <c r="M22" s="16">
+      <c r="M23" s="16">
         <v>4.9000000000000004</v>
       </c>
-      <c r="N22" s="16">
+      <c r="N23" s="16">
         <v>4.9000000000000004</v>
       </c>
-      <c r="O22" s="16">
+      <c r="O23" s="16">
         <v>4.9000000000000004</v>
       </c>
-      <c r="P22" s="16">
+      <c r="P23" s="16">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:16">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C24" s="7">
         <v>0.2</v>
       </c>
-      <c r="D23" s="8">
-        <f t="shared" ref="D23:L23" si="3">C23</f>
+      <c r="D24" s="8">
+        <f t="shared" ref="D24:L24" si="3">C24</f>
         <v>0.2</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E24" s="8">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F24" s="8">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G24" s="8">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H24" s="8">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I24" s="8">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J24" s="8">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K24" s="8">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L24" s="8">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:16">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C25" s="7">
         <v>5000</v>
       </c>
-      <c r="D24" s="8">
-        <f t="shared" ref="D24:L24" si="4">C24</f>
+      <c r="D25" s="8">
+        <f t="shared" ref="D25:L25" si="4">C25</f>
         <v>5000</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E25" s="8">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F25" s="8">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G25" s="8">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H25" s="8">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I25" s="8">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J25" s="8">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K25" s="8">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L25" s="8">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:16">
+      <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C26" s="7">
         <v>2000</v>
       </c>
-      <c r="D25" s="8">
-        <f t="shared" ref="D25:L25" si="5">C25</f>
+      <c r="D26" s="8">
+        <f t="shared" ref="D26:L26" si="5">C26</f>
         <v>2000</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E26" s="8">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F26" s="8">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G26" s="8">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H26" s="8">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I26" s="8">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J26" s="8">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K26" s="8">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L26" s="8">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>

--- a/data/18吨栏式车.xlsx
+++ b/data/18吨栏式车.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/车辆数据(1)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A8E07C-AAB9-FE43-9BE3-D1B4368A7C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C844F7F-CCBE-3541-80B5-F9437156F4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="20920" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="20920" windowHeight="9660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="燃油汽车" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="95">
   <si>
     <t>单位</t>
   </si>
@@ -310,6 +310,22 @@
   </si>
   <si>
     <t>电池容量</t>
+  </si>
+  <si>
+    <t>平均负载率</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>%,考虑每趟满载的可能性</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>行驶时间占比</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>%,考虑接不到单或高频装卸货时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -317,9 +333,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -378,6 +394,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -459,7 +483,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -481,22 +505,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
@@ -508,7 +532,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1650,7 +1677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -3808,10 +3835,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -4315,6 +4342,82 @@
       </c>
       <c r="L11" s="9">
         <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="9">
+        <v>80</v>
+      </c>
+      <c r="D12" s="9">
+        <v>80</v>
+      </c>
+      <c r="E12" s="9">
+        <v>80</v>
+      </c>
+      <c r="F12" s="9">
+        <v>80</v>
+      </c>
+      <c r="G12" s="9">
+        <v>80</v>
+      </c>
+      <c r="H12" s="9">
+        <v>80</v>
+      </c>
+      <c r="I12" s="9">
+        <v>80</v>
+      </c>
+      <c r="J12" s="9">
+        <v>80</v>
+      </c>
+      <c r="K12" s="9">
+        <v>80</v>
+      </c>
+      <c r="L12" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="9">
+        <v>80</v>
+      </c>
+      <c r="D13" s="9">
+        <v>80</v>
+      </c>
+      <c r="E13" s="9">
+        <v>80</v>
+      </c>
+      <c r="F13" s="9">
+        <v>80</v>
+      </c>
+      <c r="G13" s="9">
+        <v>80</v>
+      </c>
+      <c r="H13" s="9">
+        <v>80</v>
+      </c>
+      <c r="I13" s="9">
+        <v>80</v>
+      </c>
+      <c r="J13" s="9">
+        <v>80</v>
+      </c>
+      <c r="K13" s="9">
+        <v>80</v>
+      </c>
+      <c r="L13" s="9">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/data/18吨栏式车.xlsx
+++ b/data/18吨栏式车.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C844F7F-CCBE-3541-80B5-F9437156F4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8082DAF-F514-B145-B344-89827C2B739F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="20920" windowHeight="9660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4240" yWindow="7060" windowWidth="20920" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="燃油汽车" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="98">
   <si>
     <t>单位</t>
   </si>
@@ -153,27 +153,30 @@
     <t>元/kwh</t>
   </si>
   <si>
+    <t>电池容量</t>
+  </si>
+  <si>
+    <t>动力电池能量密度</t>
+  </si>
+  <si>
+    <t>kg/kwh</t>
+  </si>
+  <si>
+    <t>kWh/小时</t>
+  </si>
+  <si>
+    <t>kgCO2/kWh</t>
+  </si>
+  <si>
+    <t>燃料电池系统功率</t>
+  </si>
+  <si>
+    <t>燃料电池系统单价</t>
+  </si>
+  <si>
     <t>动力电池容量</t>
   </si>
   <si>
-    <t>动力电池能量密度</t>
-  </si>
-  <si>
-    <t>kg/kwh</t>
-  </si>
-  <si>
-    <t>kWh/小时</t>
-  </si>
-  <si>
-    <t>kgCO2/kWh</t>
-  </si>
-  <si>
-    <t>燃料电池系统功率</t>
-  </si>
-  <si>
-    <t>燃料电池系统单价</t>
-  </si>
-  <si>
     <t>氢瓶单位成本</t>
   </si>
   <si>
@@ -237,6 +240,18 @@
     <t>吨</t>
   </si>
   <si>
+    <t>平均负载率</t>
+  </si>
+  <si>
+    <t>%,考虑每趟满载的可能性</t>
+  </si>
+  <si>
+    <t>行驶时间占比</t>
+  </si>
+  <si>
+    <t>%,考虑接不到单或高频装卸货时间</t>
+  </si>
+  <si>
     <t>路线</t>
   </si>
   <si>
@@ -309,22 +324,13 @@
     <t>广州-深圳</t>
   </si>
   <si>
-    <t>电池容量</t>
-  </si>
-  <si>
-    <t>平均负载率</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>%,考虑每趟满载的可能性</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>行驶时间占比</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>%,考虑接不到单或高频装卸货时间</t>
+    <t>是否固定趟数</t>
+  </si>
+  <si>
+    <t>每日固定趟数</t>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -333,7 +339,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -401,7 +407,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -416,7 +422,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -477,13 +483,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -505,34 +524,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -815,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -878,49 +900,49 @@
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="11">
         <v>85600</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="11">
         <f t="shared" ref="D2:L2" si="0">C2*0.98</f>
         <v>83888</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="11">
         <f t="shared" si="0"/>
         <v>82210.240000000005</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="11">
         <f t="shared" si="0"/>
         <v>80566.035199999998</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="11">
         <f t="shared" si="0"/>
         <v>78954.714496000001</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="11">
         <f t="shared" si="0"/>
         <v>77375.620206079999</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="11">
         <f t="shared" si="0"/>
         <v>75828.107801958395</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="11">
         <f t="shared" si="0"/>
         <v>74311.545645919221</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="11">
         <f t="shared" si="0"/>
         <v>72825.314733000836</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="11">
         <f t="shared" si="0"/>
         <v>71368.808438340813</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="6" t="s">
@@ -929,40 +951,40 @@
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="11">
         <v>20000</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="11">
         <v>19600</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="11">
         <v>30001</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="11">
         <v>29400.98</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="11">
         <v>30002</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="11">
         <v>29401.96</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="11">
         <v>30003</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="11">
         <v>29402.94</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="11">
         <v>30004</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="11">
         <v>29403.919999999998</v>
       </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
@@ -971,40 +993,40 @@
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>400</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="11">
         <v>400</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="11">
         <v>400</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="11">
         <v>400</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="11">
         <v>400</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="11">
         <v>400</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="11">
         <v>400</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="11">
         <v>400</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="11">
         <v>400</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="11">
         <v>400</v>
       </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
@@ -1013,40 +1035,40 @@
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="11">
         <v>6800</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="11">
         <v>6800</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="11">
         <v>6800</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="11">
         <v>6800</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="11">
         <v>6800</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="11">
         <v>6800</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="11">
         <v>6800</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="11">
         <v>6800</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="11">
         <v>6800</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="11">
         <v>6800</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
@@ -1097,144 +1119,144 @@
       <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="11">
         <f>C5*5</f>
         <v>34000</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="11">
         <f t="shared" ref="D7:L7" si="1">D5*5</f>
         <v>34000</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="11">
         <f t="shared" si="1"/>
         <v>34000</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="11">
         <f t="shared" si="1"/>
         <v>34000</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="11">
         <f t="shared" si="1"/>
         <v>34000</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="11">
         <f t="shared" si="1"/>
         <v>34000</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="11">
         <f t="shared" si="1"/>
         <v>34000</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="11">
         <f t="shared" si="1"/>
         <v>34000</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="11">
         <f t="shared" si="1"/>
         <v>34000</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="11">
         <f t="shared" si="1"/>
         <v>34000</v>
       </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="12">
+      <c r="B8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="13">
         <f>C2+C3+C7</f>
         <v>139600</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="13">
         <f t="shared" ref="D8:L8" si="2">D2+D3+D7</f>
         <v>137488</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="13">
         <f t="shared" si="2"/>
         <v>146211.24</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="13">
         <f t="shared" si="2"/>
         <v>143967.01519999999</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="13">
         <f t="shared" si="2"/>
         <v>142956.714496</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="13">
         <f t="shared" si="2"/>
         <v>140777.58020607999</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="13">
         <f t="shared" si="2"/>
         <v>139831.10780195839</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="13">
         <f t="shared" si="2"/>
         <v>137714.48564591922</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="13">
         <f t="shared" si="2"/>
         <v>136829.31473300082</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="13">
         <f t="shared" si="2"/>
         <v>134772.72843834083</v>
       </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="12">
+      <c r="B9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="13">
         <v>63572.167670976502</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="13">
         <v>63455.983513753097</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="13">
         <v>63340.961198101897</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="13">
         <v>63227.0891056072</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="13">
         <v>63114.355734037497</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="13">
         <v>63002.749696183499</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="13">
         <v>62892.259718708003</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="13">
         <v>62782.874641007198</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="13">
         <v>62674.5834140835</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="13">
         <v>62567.375099429002</v>
       </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
@@ -1243,50 +1265,50 @@
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="13">
         <f t="shared" ref="C10:L10" si="3">C9+C8</f>
         <v>203172.16767097649</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="13">
         <f t="shared" si="3"/>
         <v>200943.9835137531</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="13">
         <f t="shared" si="3"/>
         <v>209552.20119810189</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="13">
         <f t="shared" si="3"/>
         <v>207194.10430560721</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="13">
         <f t="shared" si="3"/>
         <v>206071.0702300375</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="13">
         <f t="shared" si="3"/>
         <v>203780.32990226347</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="13">
         <f t="shared" si="3"/>
         <v>202723.36752066639</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="13">
         <f t="shared" si="3"/>
         <v>200497.36028692641</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="13">
         <f t="shared" si="3"/>
         <v>199503.89814708431</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="13">
         <f t="shared" si="3"/>
         <v>197340.10353776981</v>
       </c>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
@@ -1384,7 +1406,7 @@
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="9">
@@ -1423,10 +1445,10 @@
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="15">
@@ -1465,10 +1487,10 @@
       <c r="P14" s="15"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="15">
@@ -1515,7 +1537,7 @@
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
@@ -1566,7 +1588,7 @@
       <c r="P16" s="8"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
@@ -1617,7 +1639,7 @@
       <c r="P17" s="8"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B18" t="s">
@@ -1677,8 +1699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="E8" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1741,40 +1763,40 @@
       <c r="B2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="11">
         <v>220</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="11">
         <v>220</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="11">
         <v>220</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="11">
         <v>220</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="11">
         <v>220</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="11">
         <v>220</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="11">
         <v>220</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="11">
         <v>220</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="11">
         <v>220</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="11">
         <v>220</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="6" t="s">
@@ -1783,40 +1805,40 @@
       <c r="B3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="11">
         <v>900</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="11">
         <v>774.34350596224499</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="11">
         <v>699.26192640775298</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="11">
         <v>614.94506608887696</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="11">
         <v>546.37677780696004</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="11">
         <v>516.55385551465599</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="11">
         <v>493.39921527331001</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="11">
         <v>466.46797102233597</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="11">
         <v>445.55844157477901</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="11">
         <v>433.90523863231101</v>
       </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="6" t="s">
@@ -1825,40 +1847,40 @@
       <c r="B4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>89</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="11">
         <v>89</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="11">
         <v>89</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="11">
         <v>89</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="11">
         <v>89</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="11">
         <v>89</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="11">
         <v>89</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="11">
         <v>89</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="11">
         <v>89</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="11">
         <v>89</v>
       </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="6" t="s">
@@ -1867,40 +1889,40 @@
       <c r="B5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="11">
         <v>1000</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="11">
         <v>979.80555078111502</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="11">
         <v>961.58878479915597</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="11">
         <v>945.02478641744699</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="11">
         <v>929.86063962268202</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="11">
         <v>915.89587471672496</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="11">
         <v>902.96908503734801</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="11">
         <v>890.94852620953895</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="11">
         <v>879.72536210445298</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="11">
         <v>869.20871515059002</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="6" t="s">
@@ -1909,34 +1931,34 @@
       <c r="B6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="10">
-        <v>2</v>
-      </c>
-      <c r="D6" s="10">
-        <v>2</v>
-      </c>
-      <c r="E6" s="10">
-        <v>2</v>
-      </c>
-      <c r="F6" s="10">
-        <v>2</v>
-      </c>
-      <c r="G6" s="10">
-        <v>2</v>
-      </c>
-      <c r="H6" s="10">
-        <v>2</v>
-      </c>
-      <c r="I6" s="10">
-        <v>2</v>
-      </c>
-      <c r="J6" s="10">
-        <v>2</v>
-      </c>
-      <c r="K6" s="10">
-        <v>2</v>
-      </c>
-      <c r="L6" s="10">
+      <c r="C6" s="11">
+        <v>2</v>
+      </c>
+      <c r="D6" s="11">
+        <v>2</v>
+      </c>
+      <c r="E6" s="11">
+        <v>2</v>
+      </c>
+      <c r="F6" s="11">
+        <v>2</v>
+      </c>
+      <c r="G6" s="11">
+        <v>2</v>
+      </c>
+      <c r="H6" s="11">
+        <v>2</v>
+      </c>
+      <c r="I6" s="11">
+        <v>2</v>
+      </c>
+      <c r="J6" s="11">
+        <v>2</v>
+      </c>
+      <c r="K6" s="11">
+        <v>2</v>
+      </c>
+      <c r="L6" s="11">
         <v>2</v>
       </c>
       <c r="M6" s="7"/>
@@ -1951,40 +1973,40 @@
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="11">
         <v>6800</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="11">
         <v>6800</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="11">
         <v>6800</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="11">
         <v>6800</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="11">
         <v>6800</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="11">
         <v>6800</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="11">
         <v>6800</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="11">
         <v>6800</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="11">
         <v>6800</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="11">
         <v>6800</v>
       </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="6" t="s">
@@ -1993,134 +2015,134 @@
       <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="11">
         <v>5</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="11">
         <v>5</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="11">
         <v>5</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="11">
         <v>5</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="11">
         <v>5</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="11">
         <v>5</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="11">
         <v>5</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="11">
         <v>5</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="11">
         <v>5</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="11">
         <v>5</v>
       </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="12">
+      <c r="B9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="13">
         <f t="shared" ref="C9:L9" si="0">C2*C3+C4*C5*C6+C7*C8</f>
         <v>410000</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="13">
         <f t="shared" si="0"/>
         <v>378760.95935073239</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="13">
         <f t="shared" si="0"/>
         <v>359000.42750395543</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="13">
         <f t="shared" si="0"/>
         <v>337502.32652185846</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="13">
         <f t="shared" si="0"/>
         <v>319718.0849703686</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="13">
         <f t="shared" si="0"/>
         <v>310671.31391280133</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="13">
         <f t="shared" si="0"/>
         <v>303276.32449677616</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="13">
         <f t="shared" si="0"/>
         <v>295211.79129021184</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="13">
         <f t="shared" si="0"/>
         <v>288613.971601044</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="13">
         <f t="shared" si="0"/>
         <v>284178.30379591347</v>
       </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="12">
+      <c r="B10" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="13">
         <v>41114.363579451398</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="13">
         <v>38926.6109511791</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="13">
         <v>37542.728649247503</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="13">
         <v>36037.159785770004</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="13">
         <v>34791.682319514599</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="13">
         <v>34158.113018178403</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="13">
         <v>33640.222353333796</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="13">
         <v>33075.441766230098</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="13">
         <v>32613.379005471699</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="13">
         <v>32302.737458960499</v>
       </c>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
@@ -2129,43 +2151,43 @@
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="13">
         <f t="shared" ref="C11:L11" si="1">C10+C9</f>
         <v>451114.3635794514</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="13">
         <f t="shared" si="1"/>
         <v>417687.5703019115</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="13">
         <f t="shared" si="1"/>
         <v>396543.15615320293</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="13">
         <f t="shared" si="1"/>
         <v>373539.48630762845</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="13">
         <f t="shared" si="1"/>
         <v>354509.76728988322</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="13">
         <f t="shared" si="1"/>
         <v>344829.42693097971</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="13">
         <f t="shared" si="1"/>
         <v>336916.54685010994</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="13">
         <f t="shared" si="1"/>
         <v>328287.23305644194</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="13">
         <f t="shared" si="1"/>
         <v>321227.35060651571</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="13">
         <f t="shared" si="1"/>
         <v>316481.04125487397</v>
       </c>
@@ -2265,46 +2287,58 @@
       <c r="L13" s="6">
         <v>0.9</v>
       </c>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
+      <c r="M13" s="9">
+        <f>L13</f>
+        <v>0.9</v>
+      </c>
+      <c r="N13" s="9">
+        <f>M13</f>
+        <v>0.9</v>
+      </c>
+      <c r="O13" s="9">
+        <f>N13</f>
+        <v>0.9</v>
+      </c>
+      <c r="P13" s="9">
+        <f>O13</f>
+        <v>0.9</v>
+      </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="6" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="11">
         <v>220</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="11">
         <v>220</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="11">
         <v>220</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="11">
         <v>220</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="11">
         <v>220</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="11">
         <v>220</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="11">
         <v>220</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="11">
         <v>220</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="11">
         <v>220</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="11">
         <v>220</v>
       </c>
       <c r="M14" s="15"/>
@@ -2400,7 +2434,7 @@
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="9">
@@ -2439,10 +2473,10 @@
       <c r="P17" s="8"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="15">
@@ -2481,10 +2515,10 @@
       <c r="P18" s="8"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="16">
@@ -2531,7 +2565,7 @@
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
@@ -2578,7 +2612,7 @@
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B21" t="s">
@@ -2625,7 +2659,7 @@
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B22" t="s">
@@ -2681,8 +2715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="E8" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -2745,40 +2779,40 @@
       <c r="B2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="11">
         <v>70</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="11">
         <v>70</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="11">
         <v>70</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="11">
         <v>70</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="11">
         <v>70</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="11">
         <v>70</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="11">
         <v>70</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="11">
         <v>70</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="11">
         <v>70</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="11">
         <v>70</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="6" t="s">
@@ -2787,82 +2821,82 @@
       <c r="B3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="11">
         <v>4500</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="11">
         <v>2391.98927250304</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="11">
         <v>1961.4312034524901</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="11">
         <v>1840.04031182783</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="11">
         <v>1746.45506306998</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="11">
         <v>1014.53934665188</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="11">
         <v>780.43547988886803</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="11">
         <v>682.17625668872699</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="11">
         <v>659.55560949800599</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="11">
         <v>639.95709350887205</v>
       </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>48</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="11">
         <v>48</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="11">
         <v>48</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="11">
         <v>48</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="11">
         <v>48</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="11">
         <v>48</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="11">
         <v>48</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="11">
         <v>48</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="11">
         <v>48</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="11">
         <v>48</v>
       </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="6" t="s">
@@ -2871,40 +2905,40 @@
       <c r="B5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="11">
         <v>900</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="11">
         <v>774.34350596224499</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="11">
         <v>699.26192640775298</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="11">
         <v>614.94506608887696</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="11">
         <v>546.37677780696004</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="11">
         <v>516.55385551465599</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="11">
         <v>493.39921527331001</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="11">
         <v>466.46797102233597</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="11">
         <v>445.55844157477901</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="11">
         <v>433.90523863231101</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="6" t="s">
@@ -2913,34 +2947,34 @@
       <c r="B6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="11">
         <v>89</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="11">
         <v>89</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="11">
         <v>89</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="11">
         <v>89</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="11">
         <v>89</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="11">
         <v>89</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="11">
         <v>89</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="11">
         <v>89</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="11">
         <v>89</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="11">
         <v>89</v>
       </c>
       <c r="M6" s="7"/>
@@ -2955,40 +2989,40 @@
       <c r="B7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="11">
         <v>1000</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="11">
         <v>979.80555078111502</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="11">
         <v>961.58878479915597</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="11">
         <v>945.02478641744699</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="11">
         <v>929.86063962268202</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="11">
         <v>915.89587471672496</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="11">
         <v>902.96908503734801</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="11">
         <v>890.94852620953895</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="11">
         <v>879.72536210445298</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="11">
         <v>869.20871515059002</v>
       </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="6" t="s">
@@ -2997,40 +3031,40 @@
       <c r="B8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="10">
-        <v>2</v>
-      </c>
-      <c r="D8" s="10">
-        <v>2</v>
-      </c>
-      <c r="E8" s="10">
-        <v>2</v>
-      </c>
-      <c r="F8" s="10">
-        <v>2</v>
-      </c>
-      <c r="G8" s="10">
-        <v>2</v>
-      </c>
-      <c r="H8" s="10">
-        <v>2</v>
-      </c>
-      <c r="I8" s="10">
-        <v>2</v>
-      </c>
-      <c r="J8" s="10">
-        <v>2</v>
-      </c>
-      <c r="K8" s="10">
-        <v>2</v>
-      </c>
-      <c r="L8" s="10">
-        <v>2</v>
-      </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
+      <c r="C8" s="11">
+        <v>2</v>
+      </c>
+      <c r="D8" s="11">
+        <v>2</v>
+      </c>
+      <c r="E8" s="11">
+        <v>2</v>
+      </c>
+      <c r="F8" s="11">
+        <v>2</v>
+      </c>
+      <c r="G8" s="11">
+        <v>2</v>
+      </c>
+      <c r="H8" s="11">
+        <v>2</v>
+      </c>
+      <c r="I8" s="11">
+        <v>2</v>
+      </c>
+      <c r="J8" s="11">
+        <v>2</v>
+      </c>
+      <c r="K8" s="11">
+        <v>2</v>
+      </c>
+      <c r="L8" s="11">
+        <v>2</v>
+      </c>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
@@ -3039,82 +3073,82 @@
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="11">
         <v>40</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="11">
         <v>40</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="11">
         <v>40</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="11">
         <v>40</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="11">
         <v>40</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="11">
         <v>40</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="11">
         <v>40</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="11">
         <v>40</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="11">
         <v>40</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="11">
         <v>40</v>
       </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="10">
+        <v>47</v>
+      </c>
+      <c r="C10" s="11">
         <v>4900</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="11">
         <v>2920.35718593309</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="11">
         <v>2482.3036080431302</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="11">
         <v>2355.7698962539498</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="11">
         <v>2257.1873974662799</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="11">
         <v>1446.7371875369599</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="11">
         <v>1167.0421449154701</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="11">
         <v>1045.2676179954501</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="11">
         <v>1016.79641698969</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="11">
         <v>991.98582317815305</v>
       </c>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
@@ -3123,34 +3157,34 @@
       <c r="B11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="11">
         <v>7500</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="11">
         <v>7500</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="11">
         <v>7500</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="11">
         <v>7500</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="11">
         <v>7500</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="11">
         <v>7500</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="11">
         <v>7500</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="11">
         <v>7500</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="11">
         <v>7500</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="11">
         <v>7500</v>
       </c>
       <c r="M11" s="7"/>
@@ -3163,100 +3197,88 @@
         <v>36</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="10">
+        <v>48</v>
+      </c>
+      <c r="C12" s="11">
         <v>5</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="11">
         <v>5</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="11">
         <v>5</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="11">
         <v>5</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="11">
         <v>5</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="11">
         <v>5</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="11">
         <v>5</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="11">
         <v>5</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="11">
         <v>5</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="11">
         <v>5</v>
       </c>
-      <c r="M12" s="7">
-        <f>L12</f>
-        <v>5</v>
-      </c>
-      <c r="N12" s="7">
-        <f t="shared" ref="N12:P12" si="0">M12</f>
-        <v>5</v>
-      </c>
-      <c r="O12" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="P12" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="12">
+      <c r="B13" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="13">
         <f>C2*C3+C4*C5+C6*C7*C8+C9*C10+C11*C12</f>
         <v>769700</v>
       </c>
-      <c r="D13" s="12">
-        <f t="shared" ref="D13:L13" si="1">D2*D3+D4*D5+D6*D7*D8+D9*D10+D11*D12</f>
+      <c r="D13" s="13">
+        <f t="shared" ref="D13:L13" si="0">D2*D3+D4*D5+D6*D7*D8+D9*D10+D11*D12</f>
         <v>533327.41283776262</v>
       </c>
-      <c r="E13" s="12">
-        <f t="shared" si="1"/>
+      <c r="E13" s="13">
+        <f t="shared" si="0"/>
         <v>478819.7047252215</v>
       </c>
-      <c r="F13" s="12">
-        <f t="shared" si="1"/>
+      <c r="F13" s="13">
+        <f t="shared" si="0"/>
         <v>458265.39283267769</v>
       </c>
-      <c r="G13" s="12">
-        <f t="shared" si="1"/>
+      <c r="G13" s="13">
+        <f t="shared" si="0"/>
         <v>441780.62950112124</v>
       </c>
-      <c r="H13" s="12">
-        <f t="shared" si="1"/>
+      <c r="H13" s="13">
+        <f t="shared" si="0"/>
         <v>354211.2925313905</v>
       </c>
-      <c r="I13" s="12">
-        <f t="shared" si="1"/>
+      <c r="I13" s="13">
+        <f t="shared" si="0"/>
         <v>323223.8288586064</v>
       </c>
-      <c r="J13" s="12">
-        <f t="shared" si="1"/>
+      <c r="J13" s="13">
+        <f t="shared" si="0"/>
         <v>308042.34296239895</v>
       </c>
-      <c r="K13" s="12">
-        <f t="shared" si="1"/>
+      <c r="K13" s="13">
+        <f t="shared" si="0"/>
         <v>302318.66899463005</v>
       </c>
-      <c r="L13" s="12">
-        <f t="shared" si="1"/>
+      <c r="L13" s="13">
+        <f t="shared" si="0"/>
         <v>297523.03222390311</v>
       </c>
       <c r="M13" s="9"/>
@@ -3265,40 +3287,40 @@
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="12">
+      <c r="B14" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="13">
         <v>49078.4058792051</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="13">
         <v>38027.21508786</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="13">
         <v>35427.507967191203</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="13">
         <v>34339.747705656599</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="13">
         <v>33459.295621409197</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="13">
         <v>29579.3072627082</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="13">
         <v>28186.612362031799</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="13">
         <v>27461.896703844301</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="13">
         <v>27140.1911063878</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="13">
         <v>26873.303400162698</v>
       </c>
       <c r="M14" s="15"/>
@@ -3313,44 +3335,44 @@
       <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="12">
-        <f t="shared" ref="C15:L15" si="2">C14+C13</f>
+      <c r="C15" s="13">
+        <f t="shared" ref="C15:L15" si="1">C14+C13</f>
         <v>818778.40587920509</v>
       </c>
-      <c r="D15" s="12">
-        <f t="shared" si="2"/>
+      <c r="D15" s="13">
+        <f t="shared" si="1"/>
         <v>571354.62792562263</v>
       </c>
-      <c r="E15" s="12">
-        <f t="shared" si="2"/>
+      <c r="E15" s="13">
+        <f t="shared" si="1"/>
         <v>514247.21269241272</v>
       </c>
-      <c r="F15" s="12">
-        <f t="shared" si="2"/>
+      <c r="F15" s="13">
+        <f t="shared" si="1"/>
         <v>492605.14053833426</v>
       </c>
-      <c r="G15" s="12">
-        <f t="shared" si="2"/>
+      <c r="G15" s="13">
+        <f t="shared" si="1"/>
         <v>475239.92512253043</v>
       </c>
-      <c r="H15" s="12">
-        <f t="shared" si="2"/>
+      <c r="H15" s="13">
+        <f t="shared" si="1"/>
         <v>383790.5997940987</v>
       </c>
-      <c r="I15" s="12">
-        <f t="shared" si="2"/>
+      <c r="I15" s="13">
+        <f t="shared" si="1"/>
         <v>351410.44122063823</v>
       </c>
-      <c r="J15" s="12">
-        <f t="shared" si="2"/>
+      <c r="J15" s="13">
+        <f t="shared" si="1"/>
         <v>335504.23966624326</v>
       </c>
-      <c r="K15" s="12">
-        <f t="shared" si="2"/>
+      <c r="K15" s="13">
+        <f t="shared" si="1"/>
         <v>329458.86010101787</v>
       </c>
-      <c r="L15" s="12">
-        <f t="shared" si="2"/>
+      <c r="L15" s="13">
+        <f t="shared" si="1"/>
         <v>324396.33562406583</v>
       </c>
       <c r="M15" s="15"/>
@@ -3405,7 +3427,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" s="7">
         <v>50</v>
@@ -3437,14 +3459,26 @@
       <c r="L17" s="7">
         <v>41</v>
       </c>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
+      <c r="M17" s="8">
+        <f>L17-1</f>
+        <v>40</v>
+      </c>
+      <c r="N17" s="8">
+        <f>M17-1</f>
+        <v>39</v>
+      </c>
+      <c r="O17" s="8">
+        <f>N17-1</f>
+        <v>38</v>
+      </c>
+      <c r="P17" s="8">
+        <f>O17-1</f>
+        <v>37</v>
+      </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="6" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>27</v>
@@ -3564,7 +3598,7 @@
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="9">
@@ -3599,11 +3633,11 @@
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>48</v>
+      <c r="B22" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="C22" s="15">
         <v>500</v>
@@ -3637,11 +3671,11 @@
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>49</v>
+      <c r="B23" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="C23" s="16">
         <v>4.9000000000000004</v>
@@ -3697,39 +3731,39 @@
         <v>0.2</v>
       </c>
       <c r="D24" s="8">
-        <f t="shared" ref="D24:L24" si="3">C24</f>
+        <f t="shared" ref="D24:L24" si="2">C24</f>
         <v>0.2</v>
       </c>
       <c r="E24" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="G24" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="H24" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="I24" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="J24" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="K24" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="L24" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
     </row>
@@ -3744,39 +3778,39 @@
         <v>5000</v>
       </c>
       <c r="D25" s="8">
-        <f t="shared" ref="D25:L25" si="4">C25</f>
+        <f t="shared" ref="D25:L25" si="3">C25</f>
         <v>5000</v>
       </c>
       <c r="E25" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="G25" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="H25" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="I25" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="K25" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="L25" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
     </row>
@@ -3791,39 +3825,39 @@
         <v>2000</v>
       </c>
       <c r="D26" s="8">
-        <f t="shared" ref="D26:L26" si="5">C26</f>
+        <f t="shared" ref="D26:L26" si="4">C26</f>
         <v>2000</v>
       </c>
       <c r="E26" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2000</v>
       </c>
       <c r="F26" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2000</v>
       </c>
       <c r="G26" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2000</v>
       </c>
       <c r="H26" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2000</v>
       </c>
       <c r="I26" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2000</v>
       </c>
       <c r="J26" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2000</v>
       </c>
       <c r="K26" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2000</v>
       </c>
       <c r="L26" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2000</v>
       </c>
     </row>
@@ -3837,8 +3871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -3884,7 +3918,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -3931,10 +3965,10 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="7">
         <v>5</v>
@@ -3978,7 +4012,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -4025,10 +4059,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" s="7">
         <f>C6*8</f>
@@ -4073,10 +4107,10 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -4120,10 +4154,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7" s="7">
         <v>10000</v>
@@ -4167,10 +4201,10 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" s="7">
         <v>70</v>
@@ -4214,7 +4248,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -4261,7 +4295,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -4308,10 +4342,10 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" s="9">
         <v>18</v>
@@ -4345,79 +4379,97 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>92</v>
+      <c r="A12" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
       </c>
       <c r="C12" s="9">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D12" s="9">
-        <v>80</v>
+        <f>C12</f>
+        <v>60</v>
       </c>
       <c r="E12" s="9">
-        <v>80</v>
+        <f t="shared" ref="E12:L12" si="9">D12</f>
+        <v>60</v>
       </c>
       <c r="F12" s="9">
-        <v>80</v>
+        <f t="shared" si="9"/>
+        <v>60</v>
       </c>
       <c r="G12" s="9">
-        <v>80</v>
+        <f t="shared" si="9"/>
+        <v>60</v>
       </c>
       <c r="H12" s="9">
-        <v>80</v>
+        <f t="shared" si="9"/>
+        <v>60</v>
       </c>
       <c r="I12" s="9">
-        <v>80</v>
+        <f t="shared" si="9"/>
+        <v>60</v>
       </c>
       <c r="J12" s="9">
-        <v>80</v>
+        <f t="shared" si="9"/>
+        <v>60</v>
       </c>
       <c r="K12" s="9">
-        <v>80</v>
+        <f t="shared" si="9"/>
+        <v>60</v>
       </c>
       <c r="L12" s="9">
-        <v>80</v>
+        <f t="shared" si="9"/>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>94</v>
+      <c r="A13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
       </c>
       <c r="C13" s="9">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D13" s="9">
-        <v>80</v>
+        <f>C13</f>
+        <v>65</v>
       </c>
       <c r="E13" s="9">
-        <v>80</v>
+        <f t="shared" ref="E13:L13" si="10">D13</f>
+        <v>65</v>
       </c>
       <c r="F13" s="9">
-        <v>80</v>
+        <f t="shared" si="10"/>
+        <v>65</v>
       </c>
       <c r="G13" s="9">
-        <v>80</v>
+        <f t="shared" si="10"/>
+        <v>65</v>
       </c>
       <c r="H13" s="9">
-        <v>80</v>
+        <f t="shared" si="10"/>
+        <v>65</v>
       </c>
       <c r="I13" s="9">
-        <v>80</v>
+        <f t="shared" si="10"/>
+        <v>65</v>
       </c>
       <c r="J13" s="9">
-        <v>80</v>
+        <f t="shared" si="10"/>
+        <v>65</v>
       </c>
       <c r="K13" s="9">
-        <v>80</v>
+        <f t="shared" si="10"/>
+        <v>65</v>
       </c>
       <c r="L13" s="9">
-        <v>80</v>
+        <f t="shared" si="10"/>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -4428,42 +4480,47 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="3" max="3" width="12.6640625"/>
-    <col min="7" max="7" width="11.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>76</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B2">
         <v>4164.7110000000002</v>
@@ -4479,12 +4536,18 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B3">
         <v>3315.49</v>
@@ -4500,12 +4563,18 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B4">
         <v>2122.558</v>
@@ -4521,12 +4590,18 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B5">
         <v>2121.7370000000001</v>
@@ -4542,12 +4617,18 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B6">
         <v>1363.981</v>
@@ -4563,12 +4644,18 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B7">
         <v>1206.865</v>
@@ -4584,12 +4671,18 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B8">
         <v>949.08900000000006</v>
@@ -4605,12 +4698,18 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>945.5</v>
@@ -4626,12 +4725,18 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>794</v>
@@ -4647,12 +4752,18 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>591.85400000000004</v>
@@ -4668,12 +4779,18 @@
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B12">
         <v>319.27100000000002</v>
@@ -4689,12 +4806,18 @@
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B13">
         <v>292.233</v>
@@ -4710,12 +4833,18 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B14">
         <v>271.34699999999998</v>
@@ -4731,12 +4860,18 @@
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B15">
         <v>264.16399999999999</v>
@@ -4752,12 +4887,18 @@
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B16">
         <v>149</v>
@@ -4773,12 +4914,18 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B17">
         <v>138.30000000000001</v>
@@ -4794,12 +4941,18 @@
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B18">
         <v>138.03100000000001</v>
@@ -4815,7 +4968,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>78</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="18">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/18吨栏式车.xlsx
+++ b/data/18吨栏式车.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8082DAF-F514-B145-B344-89827C2B739F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C091DF32-B2CD-0B46-8E5A-5A35DB59AFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="7060" windowWidth="20920" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="燃油汽车" sheetId="2" r:id="rId1"/>
@@ -339,7 +339,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -524,25 +524,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
@@ -551,7 +551,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
@@ -837,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -3871,8 +3871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -4482,8 +4482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -4529,7 +4529,6 @@
         <v>0.3</v>
       </c>
       <c r="D2" s="3">
-        <f>B2*C2*10</f>
         <v>12494.133</v>
       </c>
       <c r="E2">
@@ -4556,7 +4555,6 @@
         <v>0.4</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D18" si="0">B3*C3*10</f>
         <v>13261.96</v>
       </c>
       <c r="E3">
@@ -4583,7 +4581,6 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" si="0"/>
         <v>2971.5812000000005</v>
       </c>
       <c r="E4">
@@ -4610,7 +4607,6 @@
         <v>0.47</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="0"/>
         <v>9972.1638999999996</v>
       </c>
       <c r="E5">
@@ -4637,7 +4633,6 @@
         <v>0.54</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
         <v>7365.4974000000002</v>
       </c>
       <c r="E6">
@@ -4664,7 +4659,6 @@
         <v>0.38</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
         <v>4586.0869999999995</v>
       </c>
       <c r="E7">
@@ -4691,7 +4685,6 @@
         <v>0.43</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="0"/>
         <v>4081.0826999999999</v>
       </c>
       <c r="E8">
@@ -4718,7 +4711,6 @@
         <v>0.19</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="0"/>
         <v>1796.45</v>
       </c>
       <c r="E9">
@@ -4745,7 +4737,6 @@
         <v>0.66</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="0"/>
         <v>5240.4000000000005</v>
       </c>
       <c r="E10">
@@ -4772,7 +4763,6 @@
         <v>0.23</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="0"/>
         <v>1361.2642000000003</v>
       </c>
       <c r="E11">
@@ -4799,7 +4789,6 @@
         <v>0.47</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="0"/>
         <v>1500.5736999999999</v>
       </c>
       <c r="E12">
@@ -4826,7 +4815,6 @@
         <v>0.6</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="0"/>
         <v>1753.3979999999999</v>
       </c>
       <c r="E13">
@@ -4853,7 +4841,6 @@
         <v>0.51</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="0"/>
         <v>1383.8697</v>
       </c>
       <c r="E14">
@@ -4880,7 +4867,6 @@
         <v>0.79</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="0"/>
         <v>2086.8955999999998</v>
       </c>
       <c r="E15">
@@ -4907,7 +4893,6 @@
         <v>0.7</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="0"/>
         <v>1043</v>
       </c>
       <c r="E16">
@@ -4934,7 +4919,6 @@
         <v>0.7</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="0"/>
         <v>968.1</v>
       </c>
       <c r="E17">
@@ -4950,7 +4934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" ht="17" thickBot="1">
       <c r="A18" t="s">
         <v>94</v>
       </c>
@@ -4961,7 +4945,6 @@
         <v>0.8</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="0"/>
         <v>1104.248</v>
       </c>
       <c r="E18">
